--- a/public/excel/full_IS_table.xlsx
+++ b/public/excel/full_IS_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Наименование организации грантополучателя </t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">Комментарий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отрасль</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -113,6 +116,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -170,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,6 +204,10 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -272,13 +286,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
@@ -292,6 +306,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="26.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,6 +348,9 @@
       </c>
       <c r="M1" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
